--- a/data/pca/factorExposure/factorExposure_2015-10-16.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-10-16.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +717,100 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01381955120222797</v>
+        <v>0.01637096290064495</v>
       </c>
       <c r="C2">
-        <v>0.02727749273621576</v>
+        <v>0.0342195702853617</v>
       </c>
       <c r="D2">
-        <v>0.1047423638573493</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.1270441074771645</v>
+      </c>
+      <c r="E2">
+        <v>0.05602307124526292</v>
+      </c>
+      <c r="F2">
+        <v>-0.02967520358413425</v>
+      </c>
+      <c r="G2">
+        <v>-0.04483017594751474</v>
+      </c>
+      <c r="H2">
+        <v>0.1062138792128369</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.01707447251749954</v>
+        <v>0.01219301727882367</v>
       </c>
       <c r="C3">
-        <v>0.05044366232781874</v>
+        <v>0.04065341958831915</v>
       </c>
       <c r="D3">
-        <v>0.08424437584373767</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.05484929802073214</v>
+      </c>
+      <c r="E3">
+        <v>0.04187596125260712</v>
+      </c>
+      <c r="F3">
+        <v>-0.07408413589609321</v>
+      </c>
+      <c r="G3">
+        <v>-0.1212044734526034</v>
+      </c>
+      <c r="H3">
+        <v>0.07493293410892131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.0453521159523305</v>
+        <v>0.04892842107710601</v>
       </c>
       <c r="C4">
-        <v>0.05995922902033755</v>
+        <v>0.07195102102910003</v>
       </c>
       <c r="D4">
-        <v>0.1261831120564211</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.146454147249057</v>
+      </c>
+      <c r="E4">
+        <v>0.05128570609907009</v>
+      </c>
+      <c r="F4">
+        <v>-0.04130293626832737</v>
+      </c>
+      <c r="G4">
+        <v>0.04252183619904979</v>
+      </c>
+      <c r="H4">
+        <v>-0.00470895182872585</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.03550940870740754</v>
+        <v>0.03868205606173043</v>
       </c>
       <c r="C6">
-        <v>0.02282696142078544</v>
+        <v>0.02756339038360726</v>
       </c>
       <c r="D6">
-        <v>0.1527834099163212</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.1403695603869879</v>
+      </c>
+      <c r="E6">
+        <v>0.01657729623900922</v>
+      </c>
+      <c r="F6">
+        <v>-0.02883711872196144</v>
+      </c>
+      <c r="G6">
+        <v>0.02128303376125801</v>
+      </c>
+      <c r="H6">
+        <v>0.05593768088547917</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.0168205481935214</v>
+        <v>0.01294262811826347</v>
       </c>
       <c r="C7">
-        <v>0.02638482112774906</v>
+        <v>0.03347113937143265</v>
       </c>
       <c r="D7">
-        <v>0.1047465600988794</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.09628579354414925</v>
+      </c>
+      <c r="E7">
+        <v>0.01444534505626772</v>
+      </c>
+      <c r="F7">
+        <v>-0.02921995000430085</v>
+      </c>
+      <c r="G7">
+        <v>-0.001928867961136107</v>
+      </c>
+      <c r="H7">
+        <v>0.08033573158480528</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.008422063412520638</v>
+        <v>0.008126886564913817</v>
       </c>
       <c r="C8">
-        <v>0.03136434402947335</v>
+        <v>0.0360438614093929</v>
       </c>
       <c r="D8">
-        <v>0.0624776103203796</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.07657836636522118</v>
+      </c>
+      <c r="E8">
+        <v>0.0302806261836731</v>
+      </c>
+      <c r="F8">
+        <v>-0.0676331250813814</v>
+      </c>
+      <c r="G8">
+        <v>-0.02689388650787181</v>
+      </c>
+      <c r="H8">
+        <v>0.0591697786790037</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.03846414040257475</v>
+        <v>0.03964075676812169</v>
       </c>
       <c r="C9">
-        <v>0.05303290694229111</v>
+        <v>0.06517747671989192</v>
       </c>
       <c r="D9">
-        <v>0.1117206300451281</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.1219307896011451</v>
+      </c>
+      <c r="E9">
+        <v>0.03900414390839479</v>
+      </c>
+      <c r="F9">
+        <v>-0.02374602827394278</v>
+      </c>
+      <c r="G9">
+        <v>0.02514126547591541</v>
+      </c>
+      <c r="H9">
+        <v>0.002635645555579294</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.1165235275375165</v>
+        <v>0.1484420353673878</v>
       </c>
       <c r="C10">
-        <v>-0.1829065325672802</v>
+        <v>-0.1874733947834951</v>
       </c>
       <c r="D10">
-        <v>0.003910940876635228</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.009592961405040753</v>
+      </c>
+      <c r="E10">
+        <v>0.04138338640975425</v>
+      </c>
+      <c r="F10">
+        <v>-0.05336902704328451</v>
+      </c>
+      <c r="G10">
+        <v>-0.0009477177955612994</v>
+      </c>
+      <c r="H10">
+        <v>-0.03412715255919509</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.02914524344892126</v>
+        <v>0.02815083446285327</v>
       </c>
       <c r="C11">
-        <v>0.04172065752022747</v>
+        <v>0.04589580046022055</v>
       </c>
       <c r="D11">
-        <v>0.05970954047245857</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.05974200051036677</v>
+      </c>
+      <c r="E11">
+        <v>-0.008472847963217367</v>
+      </c>
+      <c r="F11">
+        <v>0.004257372607009956</v>
+      </c>
+      <c r="G11">
+        <v>0.003093216191790863</v>
+      </c>
+      <c r="H11">
+        <v>0.03368545863919285</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.03547734712953146</v>
+        <v>0.03244452389401954</v>
       </c>
       <c r="C12">
-        <v>0.04366084778983642</v>
+        <v>0.0483254099378751</v>
       </c>
       <c r="D12">
-        <v>0.06056933482007025</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.05609706397790835</v>
+      </c>
+      <c r="E12">
+        <v>0.0007537266649390554</v>
+      </c>
+      <c r="F12">
+        <v>0.007953555311236135</v>
+      </c>
+      <c r="G12">
+        <v>-0.004810631688099126</v>
+      </c>
+      <c r="H12">
+        <v>0.03456700881352923</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01001962706275999</v>
+        <v>0.01594719572811213</v>
       </c>
       <c r="C13">
-        <v>0.03372177571470546</v>
+        <v>0.03903660634355888</v>
       </c>
       <c r="D13">
-        <v>0.1395649527410232</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.1556646090747257</v>
+      </c>
+      <c r="E13">
+        <v>0.02937932524880127</v>
+      </c>
+      <c r="F13">
+        <v>-0.06171104603769239</v>
+      </c>
+      <c r="G13">
+        <v>-0.01746440741916677</v>
+      </c>
+      <c r="H13">
+        <v>0.07609832858121693</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.002293437005362833</v>
+        <v>0.006443854799608351</v>
       </c>
       <c r="C14">
-        <v>0.02167850520386716</v>
+        <v>0.02313198686231163</v>
       </c>
       <c r="D14">
-        <v>0.0898481707051161</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.09376670550894436</v>
+      </c>
+      <c r="E14">
+        <v>0.03149748409030848</v>
+      </c>
+      <c r="F14">
+        <v>-0.01661895297400172</v>
+      </c>
+      <c r="G14">
+        <v>-0.0005150415579238713</v>
+      </c>
+      <c r="H14">
+        <v>0.09943981323584167</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>-0.003017404961936041</v>
+        <v>0.001020002766814952</v>
       </c>
       <c r="C15">
-        <v>0.003716288429275575</v>
+        <v>0.01207458142855637</v>
       </c>
       <c r="D15">
-        <v>0.004359306264644273</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.03569393551262273</v>
+      </c>
+      <c r="E15">
+        <v>0.009942151893498721</v>
+      </c>
+      <c r="F15">
+        <v>-0.001933635007247589</v>
+      </c>
+      <c r="G15">
+        <v>-0.001332180719440804</v>
+      </c>
+      <c r="H15">
+        <v>0.02336786715109832</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.02909557352777741</v>
+        <v>0.02787170246385061</v>
       </c>
       <c r="C16">
-        <v>0.04446737019158827</v>
+        <v>0.04737642551515544</v>
       </c>
       <c r="D16">
-        <v>0.06439147868526282</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.06179696314569506</v>
+      </c>
+      <c r="E16">
+        <v>0.007898073748751249</v>
+      </c>
+      <c r="F16">
+        <v>-0.001242143487977384</v>
+      </c>
+      <c r="G16">
+        <v>0.001495613981990678</v>
+      </c>
+      <c r="H16">
+        <v>0.04811702894689026</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1159,230 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.008702174901239616</v>
+        <v>0.006862007954522928</v>
       </c>
       <c r="C19">
-        <v>0.03231994227146379</v>
+        <v>0.02699572346782892</v>
       </c>
       <c r="D19">
-        <v>0.1498239020831514</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.1140073310869852</v>
+      </c>
+      <c r="E19">
+        <v>0.05547767426015996</v>
+      </c>
+      <c r="F19">
+        <v>-0.00525588025325556</v>
+      </c>
+      <c r="G19">
+        <v>-0.02498939447967958</v>
+      </c>
+      <c r="H19">
+        <v>0.05254213020819534</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.01132240208162458</v>
+        <v>0.0141997170582775</v>
       </c>
       <c r="C20">
-        <v>0.03107525534810597</v>
+        <v>0.03551532180522207</v>
       </c>
       <c r="D20">
-        <v>0.0901036638962194</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.1037269660031755</v>
+      </c>
+      <c r="E20">
+        <v>0.04810507955709492</v>
+      </c>
+      <c r="F20">
+        <v>-0.01530876179432136</v>
+      </c>
+      <c r="G20">
+        <v>0.006995755773582967</v>
+      </c>
+      <c r="H20">
+        <v>0.05455843334711909</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.003604263210257038</v>
+        <v>0.007996036169652887</v>
       </c>
       <c r="C21">
-        <v>0.03126929837573281</v>
+        <v>0.03813151919252141</v>
       </c>
       <c r="D21">
-        <v>0.1355896789961223</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.1406606788161104</v>
+      </c>
+      <c r="E21">
+        <v>0.07984757490061735</v>
+      </c>
+      <c r="F21">
+        <v>-0.04504693433237241</v>
+      </c>
+      <c r="G21">
+        <v>0.004772211085325807</v>
+      </c>
+      <c r="H21">
+        <v>0.07979542556641359</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>-0.003205168387051274</v>
+        <v>0.007454643315759736</v>
       </c>
       <c r="C22">
-        <v>0.04560414527686655</v>
+        <v>0.04175863929664671</v>
       </c>
       <c r="D22">
-        <v>0.1077602891754673</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.1621707161944912</v>
+      </c>
+      <c r="E22">
+        <v>0.0202734061482038</v>
+      </c>
+      <c r="F22">
+        <v>-0.09294213552406989</v>
+      </c>
+      <c r="G22">
+        <v>-0.0611477989746394</v>
+      </c>
+      <c r="H22">
+        <v>0.04564159299924528</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>-0.003057113153474852</v>
+        <v>0.007583899437133594</v>
       </c>
       <c r="C23">
-        <v>0.0459072433238726</v>
+        <v>0.04223044529777203</v>
       </c>
       <c r="D23">
-        <v>0.1072951481244517</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.1614739214811063</v>
+      </c>
+      <c r="E23">
+        <v>0.02071673975947793</v>
+      </c>
+      <c r="F23">
+        <v>-0.09306538047034565</v>
+      </c>
+      <c r="G23">
+        <v>-0.06041273156748096</v>
+      </c>
+      <c r="H23">
+        <v>0.04507164284248746</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.03231140584325128</v>
+        <v>0.02986870406888905</v>
       </c>
       <c r="C24">
-        <v>0.05420731750386463</v>
+        <v>0.05870929566790741</v>
       </c>
       <c r="D24">
-        <v>0.06539158103962037</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.06513463715296317</v>
+      </c>
+      <c r="E24">
+        <v>0.009253092887798102</v>
+      </c>
+      <c r="F24">
+        <v>0.0006687488686891626</v>
+      </c>
+      <c r="G24">
+        <v>0.01285050775116121</v>
+      </c>
+      <c r="H24">
+        <v>0.0529238761108068</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.03668150123484038</v>
+        <v>0.03362966946102119</v>
       </c>
       <c r="C25">
-        <v>0.05214549328464971</v>
+        <v>0.05598304953975133</v>
       </c>
       <c r="D25">
-        <v>0.06400769661345931</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.06221693509771845</v>
+      </c>
+      <c r="E25">
+        <v>0.01012039332012424</v>
+      </c>
+      <c r="F25">
+        <v>-0.002010239086216874</v>
+      </c>
+      <c r="G25">
+        <v>-0.001048581058836277</v>
+      </c>
+      <c r="H25">
+        <v>0.02644807750901809</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.0129367576668695</v>
+        <v>0.01603969590816611</v>
       </c>
       <c r="C26">
-        <v>0.01108128243823624</v>
+        <v>0.01774677215654278</v>
       </c>
       <c r="D26">
-        <v>0.05490777714095146</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.06357910231254874</v>
+      </c>
+      <c r="E26">
+        <v>0.02100358734850176</v>
+      </c>
+      <c r="F26">
+        <v>-0.01927607449171839</v>
+      </c>
+      <c r="G26">
+        <v>0.00196798522468941</v>
+      </c>
+      <c r="H26">
+        <v>0.05693478426726949</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.1709954957575305</v>
+        <v>0.2124831669952356</v>
       </c>
       <c r="C28">
-        <v>-0.2607235649760211</v>
+        <v>-0.2523092982689301</v>
       </c>
       <c r="D28">
-        <v>-0.009148157532394317</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.003829180193384805</v>
+      </c>
+      <c r="E28">
+        <v>0.07515199520071138</v>
+      </c>
+      <c r="F28">
+        <v>-0.03668033310331658</v>
+      </c>
+      <c r="G28">
+        <v>0.02584424066717846</v>
+      </c>
+      <c r="H28">
+        <v>-0.04551872894044508</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.0005039103852602043</v>
+        <v>0.004067948287440231</v>
       </c>
       <c r="C29">
-        <v>0.02142985555582346</v>
+        <v>0.02118265250624192</v>
       </c>
       <c r="D29">
-        <v>0.0793549434444477</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.09146507713471334</v>
+      </c>
+      <c r="E29">
+        <v>0.02216245671912804</v>
+      </c>
+      <c r="F29">
+        <v>-0.03523299379660658</v>
+      </c>
+      <c r="G29">
+        <v>0.009498757081618911</v>
+      </c>
+      <c r="H29">
+        <v>0.09496224175974184</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.027652883038902</v>
+        <v>0.03630111030955865</v>
       </c>
       <c r="C30">
-        <v>0.04858536565647838</v>
+        <v>0.06239117652337121</v>
       </c>
       <c r="D30">
-        <v>0.1585823274732373</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.1729255043676786</v>
+      </c>
+      <c r="E30">
+        <v>0.02294275336711647</v>
+      </c>
+      <c r="F30">
+        <v>-0.02808107312981678</v>
+      </c>
+      <c r="G30">
+        <v>0.02610847480901454</v>
+      </c>
+      <c r="H30">
+        <v>0.06960673243901849</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.05840831597549863</v>
+        <v>0.05150949824608916</v>
       </c>
       <c r="C31">
-        <v>0.06491484144354565</v>
+        <v>0.07615738366895151</v>
       </c>
       <c r="D31">
-        <v>0.07250983067341869</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.05602870483279467</v>
+      </c>
+      <c r="E31">
+        <v>0.01937085692032497</v>
+      </c>
+      <c r="F31">
+        <v>-0.04344453387998404</v>
+      </c>
+      <c r="G31">
+        <v>-0.006506091426901712</v>
+      </c>
+      <c r="H31">
+        <v>0.01414175688680086</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.009679489638196436</v>
+        <v>0.01601840248173902</v>
       </c>
       <c r="C32">
-        <v>0.01084432268469172</v>
+        <v>0.01449151774628872</v>
       </c>
       <c r="D32">
-        <v>0.07443887045082236</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.1133154069638628</v>
+      </c>
+      <c r="E32">
+        <v>0.07410862177460635</v>
+      </c>
+      <c r="F32">
+        <v>-0.05144740000145401</v>
+      </c>
+      <c r="G32">
+        <v>0.008189920924108633</v>
+      </c>
+      <c r="H32">
+        <v>0.06312704629558819</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.02090738637218587</v>
+        <v>0.02386197840480409</v>
       </c>
       <c r="C33">
-        <v>0.0382722708119844</v>
+        <v>0.04494580650719344</v>
       </c>
       <c r="D33">
-        <v>0.1376354391561083</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1339023959012592</v>
+      </c>
+      <c r="E33">
+        <v>0.03863180850797691</v>
+      </c>
+      <c r="F33">
+        <v>-0.02780615911962258</v>
+      </c>
+      <c r="G33">
+        <v>-0.002049233216584441</v>
+      </c>
+      <c r="H33">
+        <v>0.0638424611284787</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.03000497684046784</v>
+        <v>0.02537582341249768</v>
       </c>
       <c r="C34">
-        <v>0.06520044057923144</v>
+        <v>0.0635467379002318</v>
       </c>
       <c r="D34">
-        <v>0.06741429475168946</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.05511534322918374</v>
+      </c>
+      <c r="E34">
+        <v>-0.008542755431512214</v>
+      </c>
+      <c r="F34">
+        <v>0.01118191719724609</v>
+      </c>
+      <c r="G34">
+        <v>-0.004356717621182478</v>
+      </c>
+      <c r="H34">
+        <v>0.045408520027043</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.0009121034054266737</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>0.0008050924578433885</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.007528797121732783</v>
+      </c>
+      <c r="E35">
+        <v>-0.0002898400998283414</v>
+      </c>
+      <c r="F35">
+        <v>-0.0009406950344842581</v>
+      </c>
+      <c r="G35">
+        <v>-0.0001370036485886874</v>
+      </c>
+      <c r="H35">
+        <v>0.004227073445854855</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01660569765939125</v>
+        <v>0.01862861465236212</v>
       </c>
       <c r="C36">
-        <v>0.007525868824786421</v>
+        <v>0.01535426537417328</v>
       </c>
       <c r="D36">
-        <v>0.07894393017963544</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.07824972901771191</v>
+      </c>
+      <c r="E36">
+        <v>0.02937540583488714</v>
+      </c>
+      <c r="F36">
+        <v>-0.01753431251264485</v>
+      </c>
+      <c r="G36">
+        <v>0.01252617332091163</v>
+      </c>
+      <c r="H36">
+        <v>0.04830661071066528</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.01784747028532767</v>
+        <v>0.02036971695393328</v>
       </c>
       <c r="C38">
-        <v>0.01817416487340799</v>
+        <v>0.02032681623654471</v>
       </c>
       <c r="D38">
-        <v>0.06308156614119971</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.0667008235132725</v>
+      </c>
+      <c r="E38">
+        <v>0.03425526046529314</v>
+      </c>
+      <c r="F38">
+        <v>0.009254518682707149</v>
+      </c>
+      <c r="G38">
+        <v>-0.02466602827519597</v>
+      </c>
+      <c r="H38">
+        <v>0.04875282277978536</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.03419835135347793</v>
+        <v>0.03322434502297934</v>
       </c>
       <c r="C39">
-        <v>0.05660849677254048</v>
+        <v>0.06974285308632415</v>
       </c>
       <c r="D39">
-        <v>0.08673839885550526</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1026305372823028</v>
+      </c>
+      <c r="E39">
+        <v>0.01199207551464807</v>
+      </c>
+      <c r="F39">
+        <v>0.0200418310797278</v>
+      </c>
+      <c r="G39">
+        <v>0.02470196647775321</v>
+      </c>
+      <c r="H39">
+        <v>0.09197892780558008</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.01149126229709473</v>
+        <v>0.01215552663178628</v>
       </c>
       <c r="C40">
-        <v>0.041372893789374</v>
+        <v>0.0372696277384781</v>
       </c>
       <c r="D40">
-        <v>0.07998294372435054</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.08777195930142516</v>
+      </c>
+      <c r="E40">
+        <v>0.04137918214746651</v>
+      </c>
+      <c r="F40">
+        <v>-0.1027676587088205</v>
+      </c>
+      <c r="G40">
+        <v>-0.1021162695878602</v>
+      </c>
+      <c r="H40">
+        <v>0.158989736127764</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.02354023291885841</v>
+        <v>0.02325990033153161</v>
       </c>
       <c r="C41">
-        <v>0.003203825741696613</v>
+        <v>0.009643003641961263</v>
       </c>
       <c r="D41">
-        <v>0.06820181456206585</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.05275148232531091</v>
+      </c>
+      <c r="E41">
+        <v>0.04776176686167691</v>
+      </c>
+      <c r="F41">
+        <v>-0.01795065708474279</v>
+      </c>
+      <c r="G41">
+        <v>-0.02014795650313957</v>
+      </c>
+      <c r="H41">
+        <v>0.04196404302798477</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.02448333904027754</v>
+        <v>0.02267674703679528</v>
       </c>
       <c r="C43">
-        <v>0.01476459409470065</v>
+        <v>0.01907308922536485</v>
       </c>
       <c r="D43">
-        <v>0.1103254453716079</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.08405523536309729</v>
+      </c>
+      <c r="E43">
+        <v>0.02310574066903531</v>
+      </c>
+      <c r="F43">
+        <v>-0.01360683016427357</v>
+      </c>
+      <c r="G43">
+        <v>-0.0223800411248679</v>
+      </c>
+      <c r="H43">
+        <v>0.04963006930690063</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.009537039700447173</v>
+        <v>0.0136823660287156</v>
       </c>
       <c r="C44">
-        <v>0.04186708625890341</v>
+        <v>0.04139901587130849</v>
       </c>
       <c r="D44">
-        <v>0.08236587758459767</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.1035266674567667</v>
+      </c>
+      <c r="E44">
+        <v>0.04868738939050234</v>
+      </c>
+      <c r="F44">
+        <v>-0.02510366362509034</v>
+      </c>
+      <c r="G44">
+        <v>-0.007626311332502355</v>
+      </c>
+      <c r="H44">
+        <v>0.06441937046814615</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1861,100 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.01091345939777719</v>
+        <v>0.01162453185085446</v>
       </c>
       <c r="C46">
-        <v>0.02537001317498625</v>
+        <v>0.02998066044365673</v>
       </c>
       <c r="D46">
-        <v>0.08671161762696505</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.08798639116235085</v>
+      </c>
+      <c r="E46">
+        <v>0.03344000263440093</v>
+      </c>
+      <c r="F46">
+        <v>-0.01471017789824302</v>
+      </c>
+      <c r="G46">
+        <v>0.01314952557490579</v>
+      </c>
+      <c r="H46">
+        <v>0.0897383273246757</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.09021586489083326</v>
+        <v>0.07960395319831914</v>
       </c>
       <c r="C47">
-        <v>0.07467814555528444</v>
+        <v>0.0915591662084546</v>
       </c>
       <c r="D47">
-        <v>0.04856580936442022</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.03579940561030052</v>
+      </c>
+      <c r="E47">
+        <v>0.03306549498149657</v>
+      </c>
+      <c r="F47">
+        <v>-0.03216505819481824</v>
+      </c>
+      <c r="G47">
+        <v>-0.02110548948038827</v>
+      </c>
+      <c r="H47">
+        <v>-0.04637014327707131</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.009601454676383247</v>
+        <v>0.01364925703042803</v>
       </c>
       <c r="C48">
-        <v>0.01709922250048364</v>
+        <v>0.02089327771749619</v>
       </c>
       <c r="D48">
-        <v>0.06654091726582367</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.07251358412978519</v>
+      </c>
+      <c r="E48">
+        <v>0.05441666609178403</v>
+      </c>
+      <c r="F48">
+        <v>-0.02260614277153371</v>
+      </c>
+      <c r="G48">
+        <v>0.00850387587201124</v>
+      </c>
+      <c r="H48">
+        <v>0.05545356298749031</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1965,74 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.0553976564582272</v>
+        <v>0.04870272530745275</v>
       </c>
       <c r="C50">
-        <v>0.05636701882233615</v>
+        <v>0.06805195303279825</v>
       </c>
       <c r="D50">
-        <v>0.06305953045035424</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.0537752386146574</v>
+      </c>
+      <c r="E50">
+        <v>0.02317916441562722</v>
+      </c>
+      <c r="F50">
+        <v>-0.04653799518815624</v>
+      </c>
+      <c r="G50">
+        <v>-0.03831133325429264</v>
+      </c>
+      <c r="H50">
+        <v>0.02143974829102319</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.009253675450120204</v>
+        <v>0.01042377386439111</v>
       </c>
       <c r="C51">
-        <v>0.01469268350471946</v>
+        <v>0.02111722247773602</v>
       </c>
       <c r="D51">
-        <v>0.07788928978505101</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.08866891216480757</v>
+      </c>
+      <c r="E51">
+        <v>0.009351405244186768</v>
+      </c>
+      <c r="F51">
+        <v>-0.006816414121109596</v>
+      </c>
+      <c r="G51">
+        <v>0.01442367491997567</v>
+      </c>
+      <c r="H51">
+        <v>0.08573646121589036</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.08843104545728499</v>
+        <v>0.08660695557164194</v>
       </c>
       <c r="C53">
-        <v>0.09267672438779241</v>
+        <v>0.101493052421128</v>
       </c>
       <c r="D53">
-        <v>0.006794140486521043</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.01732514515746623</v>
+      </c>
+      <c r="E53">
+        <v>0.1033123781262274</v>
+      </c>
+      <c r="F53">
+        <v>-0.08994485114055276</v>
+      </c>
+      <c r="G53">
+        <v>0.04277974287034002</v>
+      </c>
+      <c r="H53">
+        <v>-0.02869214656520476</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.02412991202396608</v>
+        <v>0.02468160355487572</v>
       </c>
       <c r="C54">
-        <v>0.02937723998326008</v>
+        <v>0.03450916027683892</v>
       </c>
       <c r="D54">
-        <v>0.09596928596923164</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.08705057011468038</v>
+      </c>
+      <c r="E54">
+        <v>0.03752789082071654</v>
+      </c>
+      <c r="F54">
+        <v>-0.007814524010615406</v>
+      </c>
+      <c r="G54">
+        <v>-0.02618935732979165</v>
+      </c>
+      <c r="H54">
+        <v>0.08663036709576177</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.08943419496459257</v>
+        <v>0.08406219553607025</v>
       </c>
       <c r="C55">
-        <v>0.07002379239352598</v>
+        <v>0.08089765124171332</v>
       </c>
       <c r="D55">
-        <v>-0.009322989064609384</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.004313636919250869</v>
+      </c>
+      <c r="E55">
+        <v>0.05041464261589544</v>
+      </c>
+      <c r="F55">
+        <v>-0.06188020966194815</v>
+      </c>
+      <c r="G55">
+        <v>0.01924466218999345</v>
+      </c>
+      <c r="H55">
+        <v>-0.01579215500985889</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1378565584953471</v>
+        <v>0.1271994647076417</v>
       </c>
       <c r="C56">
-        <v>0.1030369218541494</v>
+        <v>0.1284481934576292</v>
       </c>
       <c r="D56">
-        <v>-0.005283955724525564</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.008292208178722551</v>
+      </c>
+      <c r="E56">
+        <v>0.05114256390289353</v>
+      </c>
+      <c r="F56">
+        <v>-0.05893725871184145</v>
+      </c>
+      <c r="G56">
+        <v>-0.008819884469716613</v>
+      </c>
+      <c r="H56">
+        <v>-0.04895887369026463</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2173,126 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.005802981073169596</v>
+        <v>0.01065366540069695</v>
       </c>
       <c r="C58">
-        <v>0.01071324061094609</v>
+        <v>0.03303251244986759</v>
       </c>
       <c r="D58">
-        <v>0.2643241293670913</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.3112436159011517</v>
+      </c>
+      <c r="E58">
+        <v>0.09230497967082148</v>
+      </c>
+      <c r="F58">
+        <v>-0.1063676749106136</v>
+      </c>
+      <c r="G58">
+        <v>-0.06209688304537715</v>
+      </c>
+      <c r="H58">
+        <v>-0.006185965437523568</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1509718276194137</v>
+        <v>0.1835459011759769</v>
       </c>
       <c r="C59">
-        <v>-0.1776019877673208</v>
+        <v>-0.1661944562466503</v>
       </c>
       <c r="D59">
-        <v>0.03947508265118633</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.05639389669779784</v>
+      </c>
+      <c r="E59">
+        <v>0.04126909682050961</v>
+      </c>
+      <c r="F59">
+        <v>0.03181926365762514</v>
+      </c>
+      <c r="G59">
+        <v>-0.002444299816083643</v>
+      </c>
+      <c r="H59">
+        <v>-0.02180120111106121</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2418163589049288</v>
+        <v>0.2274558493144463</v>
       </c>
       <c r="C60">
-        <v>0.08071628223345084</v>
+        <v>0.106388507555922</v>
       </c>
       <c r="D60">
-        <v>0.20572356387411</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.1360893289380757</v>
+      </c>
+      <c r="E60">
+        <v>-0.3232457184588801</v>
+      </c>
+      <c r="F60">
+        <v>0.08481947792482894</v>
+      </c>
+      <c r="G60">
+        <v>0.03334257643896205</v>
+      </c>
+      <c r="H60">
+        <v>-0.1501198085651453</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.04180566879192553</v>
+        <v>0.03898717891646874</v>
       </c>
       <c r="C61">
-        <v>0.05383485300429287</v>
+        <v>0.06321277593635413</v>
       </c>
       <c r="D61">
-        <v>0.1020481515516822</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.09388865641528905</v>
+      </c>
+      <c r="E61">
+        <v>0.003701456774725583</v>
+      </c>
+      <c r="F61">
+        <v>0.01364677295089088</v>
+      </c>
+      <c r="G61">
+        <v>0.009108010158014648</v>
+      </c>
+      <c r="H61">
+        <v>0.05257474022388207</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2303,204 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01525211418608155</v>
+        <v>0.01623323435319709</v>
       </c>
       <c r="C63">
-        <v>0.02165589680999351</v>
+        <v>0.03065131032236376</v>
       </c>
       <c r="D63">
-        <v>0.0774358244011336</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.07568412283390806</v>
+      </c>
+      <c r="E63">
+        <v>0.01381911670470244</v>
+      </c>
+      <c r="F63">
+        <v>-0.01395804953477828</v>
+      </c>
+      <c r="G63">
+        <v>0.01414505600791496</v>
+      </c>
+      <c r="H63">
+        <v>0.04975965597986659</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.05654131051161346</v>
+        <v>0.05008264476182341</v>
       </c>
       <c r="C64">
-        <v>0.07419514211469758</v>
+        <v>0.08168691837241736</v>
       </c>
       <c r="D64">
-        <v>0.05496852520930891</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.05580969431823032</v>
+      </c>
+      <c r="E64">
+        <v>0.01790750726906729</v>
+      </c>
+      <c r="F64">
+        <v>-0.003383537954250366</v>
+      </c>
+      <c r="G64">
+        <v>0.06715613851431906</v>
+      </c>
+      <c r="H64">
+        <v>0.03254432901681133</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.03994879168183708</v>
+        <v>0.04098740902964147</v>
       </c>
       <c r="C65">
-        <v>0.02040526111607347</v>
+        <v>0.02738989364432552</v>
       </c>
       <c r="D65">
-        <v>0.1257483753689515</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.1181133485903199</v>
+      </c>
+      <c r="E65">
+        <v>-0.008661640140327531</v>
+      </c>
+      <c r="F65">
+        <v>-0.01434381322156147</v>
+      </c>
+      <c r="G65">
+        <v>0.0006096352272973787</v>
+      </c>
+      <c r="H65">
+        <v>0.02065684136648042</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.03734931811695432</v>
+        <v>0.03650809412152833</v>
       </c>
       <c r="C66">
-        <v>0.06375572565972729</v>
+        <v>0.07872262657906083</v>
       </c>
       <c r="D66">
-        <v>0.1069386625875847</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1289178434388568</v>
+      </c>
+      <c r="E66">
+        <v>0.01318490871579009</v>
+      </c>
+      <c r="F66">
+        <v>0.008024089711057751</v>
+      </c>
+      <c r="G66">
+        <v>0.00196790560706489</v>
+      </c>
+      <c r="H66">
+        <v>0.06274190104013579</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.03903963404906007</v>
+        <v>0.03797704440433817</v>
       </c>
       <c r="C67">
-        <v>0.02327633769223848</v>
+        <v>0.02695809111168447</v>
       </c>
       <c r="D67">
-        <v>0.03408577448638742</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.02764216809444894</v>
+      </c>
+      <c r="E67">
+        <v>0.01100478271235304</v>
+      </c>
+      <c r="F67">
+        <v>0.016866143419699</v>
+      </c>
+      <c r="G67">
+        <v>-0.01963773349427126</v>
+      </c>
+      <c r="H67">
+        <v>0.04358374674665086</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.1741972308850677</v>
+        <v>0.2033428975589314</v>
       </c>
       <c r="C68">
-        <v>-0.220578110137485</v>
+        <v>-0.1971177926382444</v>
       </c>
       <c r="D68">
-        <v>0.01770164920654447</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.02457820417141499</v>
+      </c>
+      <c r="E68">
+        <v>0.02910378737068045</v>
+      </c>
+      <c r="F68">
+        <v>-0.02985441777046433</v>
+      </c>
+      <c r="G68">
+        <v>0.0005109662962661511</v>
+      </c>
+      <c r="H68">
+        <v>0.01061116310822986</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.08067235041146764</v>
+        <v>0.07052043547968413</v>
       </c>
       <c r="C69">
-        <v>0.08980477592871156</v>
+        <v>0.09941618746570363</v>
       </c>
       <c r="D69">
-        <v>0.0708388302788054</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.05088981749570834</v>
+      </c>
+      <c r="E69">
+        <v>0.02211727100656494</v>
+      </c>
+      <c r="F69">
+        <v>-0.01443189434170111</v>
+      </c>
+      <c r="G69">
+        <v>-0.009701491483705194</v>
+      </c>
+      <c r="H69">
+        <v>-0.01911565952848219</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2511,672 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.155715525469128</v>
+        <v>0.1877826992560467</v>
       </c>
       <c r="C71">
-        <v>-0.220932925105042</v>
+        <v>-0.2036625151271966</v>
       </c>
       <c r="D71">
-        <v>0.02779958861185532</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.03770118097580825</v>
+      </c>
+      <c r="E71">
+        <v>0.04698730549129315</v>
+      </c>
+      <c r="F71">
+        <v>-0.06846009577190444</v>
+      </c>
+      <c r="G71">
+        <v>-0.02812758296255579</v>
+      </c>
+      <c r="H71">
+        <v>-0.004766605312342122</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1044772497796349</v>
+        <v>0.09919149745554753</v>
       </c>
       <c r="C72">
-        <v>0.05534266749345151</v>
+        <v>0.07753280850136257</v>
       </c>
       <c r="D72">
-        <v>0.09087772649761686</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.09539933161157459</v>
+      </c>
+      <c r="E72">
+        <v>-0.0475064185206769</v>
+      </c>
+      <c r="F72">
+        <v>-0.03017172630970508</v>
+      </c>
+      <c r="G72">
+        <v>0.03883531336297726</v>
+      </c>
+      <c r="H72">
+        <v>0.03538112628524247</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2546751505925683</v>
+        <v>0.23440319338046</v>
       </c>
       <c r="C73">
-        <v>0.0481632545944434</v>
+        <v>0.09849034359109374</v>
       </c>
       <c r="D73">
-        <v>0.3124221011916787</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.1765571795701653</v>
+      </c>
+      <c r="E73">
+        <v>-0.6273540189027623</v>
+      </c>
+      <c r="F73">
+        <v>0.1912409309091437</v>
+      </c>
+      <c r="G73">
+        <v>0.05786031353866062</v>
+      </c>
+      <c r="H73">
+        <v>-0.1865234989640134</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1046527839080862</v>
+        <v>0.09408467447706508</v>
       </c>
       <c r="C74">
-        <v>0.07466427893213647</v>
+        <v>0.09252983669202609</v>
       </c>
       <c r="D74">
-        <v>-0.007067281160850016</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.01283690463415021</v>
+      </c>
+      <c r="E74">
+        <v>0.04209165257913925</v>
+      </c>
+      <c r="F74">
+        <v>-0.07482254263790707</v>
+      </c>
+      <c r="G74">
+        <v>0.03898742964597435</v>
+      </c>
+      <c r="H74">
+        <v>-0.05461131459754393</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2466006204668091</v>
+        <v>0.2224622575740776</v>
       </c>
       <c r="C75">
-        <v>0.1344243482893402</v>
+        <v>0.1683946704541138</v>
       </c>
       <c r="D75">
-        <v>-0.07641792082346602</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.09708705273169332</v>
+      </c>
+      <c r="E75">
+        <v>0.1005359242282342</v>
+      </c>
+      <c r="F75">
+        <v>-0.0281049786840236</v>
+      </c>
+      <c r="G75">
+        <v>0.0006969770486697919</v>
+      </c>
+      <c r="H75">
+        <v>-0.0954195209265878</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1364924187964757</v>
+        <v>0.1231230166515346</v>
       </c>
       <c r="C76">
-        <v>0.09870936926756928</v>
+        <v>0.1142012141261766</v>
       </c>
       <c r="D76">
-        <v>-0.004016862301069199</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.008422103019960362</v>
+      </c>
+      <c r="E76">
+        <v>0.1002950664272001</v>
+      </c>
+      <c r="F76">
+        <v>-0.04742321042017379</v>
+      </c>
+      <c r="G76">
+        <v>0.02566553684374185</v>
+      </c>
+      <c r="H76">
+        <v>0.000232622135763402</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.04952401147430164</v>
+        <v>0.05649903536385461</v>
       </c>
       <c r="C77">
-        <v>0.06685398351388637</v>
+        <v>0.07497674263325502</v>
       </c>
       <c r="D77">
-        <v>0.04347416014375971</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1298025710950133</v>
+      </c>
+      <c r="E77">
+        <v>0.3613378122576321</v>
+      </c>
+      <c r="F77">
+        <v>0.2923983633169143</v>
+      </c>
+      <c r="G77">
+        <v>-0.5124952504054654</v>
+      </c>
+      <c r="H77">
+        <v>-0.592015142498574</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.03868907853236813</v>
+        <v>0.04303345082240288</v>
       </c>
       <c r="C78">
-        <v>0.06097294045206805</v>
+        <v>0.06830538085217978</v>
       </c>
       <c r="D78">
-        <v>0.1278308076692145</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.134787262993957</v>
+      </c>
+      <c r="E78">
+        <v>0.01521863196419389</v>
+      </c>
+      <c r="F78">
+        <v>-0.03541262602521485</v>
+      </c>
+      <c r="G78">
+        <v>-0.006882442733403756</v>
+      </c>
+      <c r="H78">
+        <v>0.008709795623341031</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.03870239230632204</v>
+        <v>0.0483212029362478</v>
       </c>
       <c r="C79">
-        <v>0.08158345274895749</v>
+        <v>0.0986659194144002</v>
       </c>
       <c r="D79">
-        <v>-0.09796471928851745</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.02549392706367165</v>
+      </c>
+      <c r="E79">
+        <v>0.2135253320489759</v>
+      </c>
+      <c r="F79">
+        <v>-0.3316602340944996</v>
+      </c>
+      <c r="G79">
+        <v>0.6479784061590163</v>
+      </c>
+      <c r="H79">
+        <v>-0.415358648028938</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.02552287293886433</v>
+        <v>0.02508175876010649</v>
       </c>
       <c r="C80">
-        <v>0.04436894531581729</v>
+        <v>0.04591083218853678</v>
       </c>
       <c r="D80">
-        <v>0.01808925786057626</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.01886283910958777</v>
+      </c>
+      <c r="E80">
+        <v>0.01728415655890504</v>
+      </c>
+      <c r="F80">
+        <v>-0.005910867713380832</v>
+      </c>
+      <c r="G80">
+        <v>0.006781724498874617</v>
+      </c>
+      <c r="H80">
+        <v>0.06577254955393042</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1368006680828169</v>
+        <v>0.1198127086174993</v>
       </c>
       <c r="C81">
-        <v>0.1041788301600351</v>
+        <v>0.1226372446185494</v>
       </c>
       <c r="D81">
-        <v>-0.07115569151297285</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.075572287671733</v>
+      </c>
+      <c r="E81">
+        <v>0.09799595074408055</v>
+      </c>
+      <c r="F81">
+        <v>-0.06420922396530766</v>
+      </c>
+      <c r="G81">
+        <v>0.005653331593060542</v>
+      </c>
+      <c r="H81">
+        <v>-0.02748461760190372</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.3110236590076164</v>
+        <v>0.2594658338662918</v>
       </c>
       <c r="C82">
-        <v>0.2719726713661245</v>
+        <v>0.2727227126831688</v>
       </c>
       <c r="D82">
-        <v>-0.2370586198283492</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.2391134223299031</v>
+      </c>
+      <c r="E82">
+        <v>-0.01905623036599721</v>
+      </c>
+      <c r="F82">
+        <v>-0.01674992794723499</v>
+      </c>
+      <c r="G82">
+        <v>-0.177282710717535</v>
+      </c>
+      <c r="H82">
+        <v>0.01290529968835279</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.02604519941567682</v>
+        <v>0.02069493161305129</v>
       </c>
       <c r="C83">
-        <v>0.05308440501250504</v>
+        <v>0.05041284067854575</v>
       </c>
       <c r="D83">
-        <v>0.04680490677060319</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.05092378128617179</v>
+      </c>
+      <c r="E83">
+        <v>0.03256755891788393</v>
+      </c>
+      <c r="F83">
+        <v>0.05994994155536165</v>
+      </c>
+      <c r="G83">
+        <v>-0.06158088994674468</v>
+      </c>
+      <c r="H83">
+        <v>-0.05158094644308243</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>0.0009664208293583804</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>0.004838585757617065</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.01860211891335654</v>
+      </c>
+      <c r="E84">
+        <v>0.0172812145237858</v>
+      </c>
+      <c r="F84">
+        <v>-0.01626358692180206</v>
+      </c>
+      <c r="G84">
+        <v>0.001075569090240712</v>
+      </c>
+      <c r="H84">
+        <v>0.02247313472524736</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1707797818301007</v>
+        <v>0.1533807240272639</v>
       </c>
       <c r="C85">
-        <v>0.1132735332899058</v>
+        <v>0.1390575816187085</v>
       </c>
       <c r="D85">
-        <v>-0.03430005101297056</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.0595906589353456</v>
+      </c>
+      <c r="E85">
+        <v>0.03254498781937293</v>
+      </c>
+      <c r="F85">
+        <v>-0.05812560186752807</v>
+      </c>
+      <c r="G85">
+        <v>0.09067101793669154</v>
+      </c>
+      <c r="H85">
+        <v>-0.03472299079280008</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.01589641927678809</v>
+        <v>0.01733404506920375</v>
       </c>
       <c r="C86">
-        <v>0.03626319921526944</v>
+        <v>0.03483303666547243</v>
       </c>
       <c r="D86">
-        <v>0.118074494413109</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.1164147417605967</v>
+      </c>
+      <c r="E86">
+        <v>0.03000868636275816</v>
+      </c>
+      <c r="F86">
+        <v>0.004620475649614211</v>
+      </c>
+      <c r="G86">
+        <v>-0.07552033097355602</v>
+      </c>
+      <c r="H86">
+        <v>-0.01124238985067042</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.0200246131930466</v>
+        <v>0.03175845911438597</v>
       </c>
       <c r="C87">
-        <v>0.01760418463590071</v>
+        <v>0.02562569161714162</v>
       </c>
       <c r="D87">
-        <v>0.09842536082472528</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.1306522679053256</v>
+      </c>
+      <c r="E87">
+        <v>0.05607628969426945</v>
+      </c>
+      <c r="F87">
+        <v>-0.01660834557577583</v>
+      </c>
+      <c r="G87">
+        <v>-0.00347860641081569</v>
+      </c>
+      <c r="H87">
+        <v>0.05980537614688712</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.07277267807136714</v>
+        <v>0.06584872975181963</v>
       </c>
       <c r="C88">
-        <v>0.04103740997928731</v>
+        <v>0.05436379860907017</v>
       </c>
       <c r="D88">
-        <v>0.04647709907821104</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.02463395238110366</v>
+      </c>
+      <c r="E88">
+        <v>-0.002417651906064649</v>
+      </c>
+      <c r="F88">
+        <v>-0.03023078761592167</v>
+      </c>
+      <c r="G88">
+        <v>0.007790301983530458</v>
+      </c>
+      <c r="H88">
+        <v>0.0246579962333235</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.2411514413560513</v>
+        <v>0.2864450040376953</v>
       </c>
       <c r="C89">
-        <v>-0.3915051914795572</v>
+        <v>-0.3442965620561796</v>
       </c>
       <c r="D89">
-        <v>-0.01616968605476149</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.002375523723154792</v>
+      </c>
+      <c r="E89">
+        <v>0.06122956525439783</v>
+      </c>
+      <c r="F89">
+        <v>-0.001913346566878941</v>
+      </c>
+      <c r="G89">
+        <v>0.04456572895046421</v>
+      </c>
+      <c r="H89">
+        <v>0.08616123085362057</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.2130311906383928</v>
+        <v>0.2450388099806708</v>
       </c>
       <c r="C90">
-        <v>-0.2929608232816378</v>
+        <v>-0.2467268767413442</v>
       </c>
       <c r="D90">
-        <v>0.0005027896647558555</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.02232216884956945</v>
+      </c>
+      <c r="E90">
+        <v>0.0464299045498982</v>
+      </c>
+      <c r="F90">
+        <v>0.001512792911495536</v>
+      </c>
+      <c r="G90">
+        <v>-0.04367136372013299</v>
+      </c>
+      <c r="H90">
+        <v>0.04349204224327594</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.1744190706468691</v>
+        <v>0.1521925180852275</v>
       </c>
       <c r="C91">
-        <v>0.1477718771410928</v>
+        <v>0.1582808524543365</v>
       </c>
       <c r="D91">
-        <v>-0.08347092806896615</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.08527690237588519</v>
+      </c>
+      <c r="E91">
+        <v>0.1027842303807692</v>
+      </c>
+      <c r="F91">
+        <v>-0.06849312084746419</v>
+      </c>
+      <c r="G91">
+        <v>0.04687350049808908</v>
+      </c>
+      <c r="H91">
+        <v>-0.09181578310054656</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1867669071543411</v>
+        <v>0.2301465164607962</v>
       </c>
       <c r="C92">
-        <v>-0.27482910403849</v>
+        <v>-0.266563106670452</v>
       </c>
       <c r="D92">
-        <v>0.02070174170205205</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.03290712647967729</v>
+      </c>
+      <c r="E92">
+        <v>0.08144533778492502</v>
+      </c>
+      <c r="F92">
+        <v>-0.008684243269283186</v>
+      </c>
+      <c r="G92">
+        <v>-0.02825100560111598</v>
+      </c>
+      <c r="H92">
+        <v>0.01207994709525674</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.2383654846600928</v>
+        <v>0.2643331456577131</v>
       </c>
       <c r="C93">
-        <v>-0.299828584731207</v>
+        <v>-0.2549198047699506</v>
       </c>
       <c r="D93">
-        <v>0.009604557025768207</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.004924730763380795</v>
+      </c>
+      <c r="E93">
+        <v>-0.01539598161155758</v>
+      </c>
+      <c r="F93">
+        <v>-0.02430552796200413</v>
+      </c>
+      <c r="G93">
+        <v>0.009696945286219628</v>
+      </c>
+      <c r="H93">
+        <v>0.002984611557577089</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.3744436378529817</v>
+        <v>0.3301035973797357</v>
       </c>
       <c r="C94">
-        <v>0.2213103015552464</v>
+        <v>0.2651225797987663</v>
       </c>
       <c r="D94">
-        <v>-0.4415809727987747</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.4429052118213298</v>
+      </c>
+      <c r="E94">
+        <v>0.0466360581181024</v>
+      </c>
+      <c r="F94">
+        <v>0.03875804300826983</v>
+      </c>
+      <c r="G94">
+        <v>-0.1214642267196894</v>
+      </c>
+      <c r="H94">
+        <v>0.3686689550749709</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.06986486544631534</v>
+        <v>0.06681701697834849</v>
       </c>
       <c r="C95">
-        <v>0.05829160494211275</v>
+        <v>0.06223316705328155</v>
       </c>
       <c r="D95">
-        <v>0.07775682283534202</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.08265504287821676</v>
+      </c>
+      <c r="E95">
+        <v>0.2787276299759863</v>
+      </c>
+      <c r="F95">
+        <v>0.7910079485247701</v>
+      </c>
+      <c r="G95">
+        <v>0.4218519914082288</v>
+      </c>
+      <c r="H95">
+        <v>0.1581242796422651</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +3187,22 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +3213,48 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1689618742100849</v>
+        <v>0.1621206452869493</v>
       </c>
       <c r="C98">
-        <v>0.04057961204285987</v>
+        <v>0.07235243818523525</v>
       </c>
       <c r="D98">
-        <v>0.1725805821454759</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.1266097586246598</v>
+      </c>
+      <c r="E98">
+        <v>-0.3027467702643703</v>
+      </c>
+      <c r="F98">
+        <v>0.03889709024462797</v>
+      </c>
+      <c r="G98">
+        <v>0.03766226474218542</v>
+      </c>
+      <c r="H98">
+        <v>-0.09829902664597531</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3265,22 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3291,74 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.000464119462448639</v>
+        <v>0.004157732291464974</v>
       </c>
       <c r="C101">
-        <v>0.02079289509644069</v>
+        <v>0.02042881727152743</v>
       </c>
       <c r="D101">
-        <v>0.07947581945498189</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.09131703637145937</v>
+      </c>
+      <c r="E101">
+        <v>0.02291569908572252</v>
+      </c>
+      <c r="F101">
+        <v>-0.03473487630362442</v>
+      </c>
+      <c r="G101">
+        <v>0.00966536134807071</v>
+      </c>
+      <c r="H101">
+        <v>0.094397308381946</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1229934775869449</v>
+        <v>0.1029571750458881</v>
       </c>
       <c r="C102">
-        <v>0.1168670659903039</v>
+        <v>0.1199789062022235</v>
       </c>
       <c r="D102">
-        <v>-0.05175463870628459</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.06359777916682761</v>
+      </c>
+      <c r="E102">
+        <v>0.02962621225565006</v>
+      </c>
+      <c r="F102">
+        <v>0.009769679011157873</v>
+      </c>
+      <c r="G102">
+        <v>-0.01591812301112188</v>
+      </c>
+      <c r="H102">
+        <v>-0.03444408041865938</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
